--- a/biology/Zoologie/Callithrix_nigriceps/Callithrix_nigriceps.xlsx
+++ b/biology/Zoologie/Callithrix_nigriceps/Callithrix_nigriceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mico nigriceps · Ouistiti à tête noire
-Le Ouistiti à tête noire[1] (Mico nigriceps ou Callithrix nigriceps) est une espèce de primates de la famille des Callitrichidae.
+Le Ouistiti à tête noire (Mico nigriceps ou Callithrix nigriceps) est une espèce de primates de la famille des Callitrichidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Black-headed marmoset ; Sagui-de-cabeça-preta (Brésil).
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nord-ouest du Brésil, au sud du Rio Madeira. Occupe une petite zone vaste comme le département des Landes à l’est de la localité d’Humaita. Elle est délimitée par le Rio dos Marmelos à l’est, le Rio Madeira au nord et à l’ouest, le bas Rio Jí-Paraná au sud-ouest et au sud.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêt secondaire et forêt perturbée. Lisière de forêt.
 </t>
@@ -605,7 +623,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite espèce trapue et robuste. Dos gris brunâtre. Dessous jaune à orangé. Bras jaune à orangé et jambes avec une raie roux orangé. Base de la queue brun sombre dessus et brun roussâtre dessous, le reste étant noir à l’exception d’une coloration brun roussâtre située à mi-queue. Dessus des pieds et mains noir. Front et couronne noirs. Face et oreilles sombres, nues et pigmentées. Pas de touffe auriculaire. Le mâle a un scrotum nu et non pigmenté (donc pâle).
 </t>
@@ -636,7 +656,9 @@
           <t>Mensurations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps 20,6 cm (de 19 à 22 cm). Queue de 31 à 33 cm. Poids 370 g (de 330 à 400 g).
 </t>
@@ -667,7 +689,9 @@
           <t>Locomotion</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Quadrupède.
 </t>
@@ -698,7 +722,9 @@
           <t>Comportements basiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Diurne. Arboricole.
 </t>
@@ -729,7 +755,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Frugivore-gommivore-insectivore.
 </t>
@@ -760,7 +788,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Menacé par la Transamazonienne et l’autoroute du Rondônia.
 </t>
@@ -791,7 +821,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Néant.
 </t>
@@ -822,7 +854,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Insuffisamment documenté.
 </t>
